--- a/src/main/resources/ru/avem/posshop/app/protocol.xlsx
+++ b/src/main/resources/ru/avem/posshop/app/protocol.xlsx
@@ -8,74 +8,153 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$216</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$S$395</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+  <si>
+    <t>Стенд для испытания ПОС лопасти несущего винта изд. «260-2901-00»</t>
+  </si>
   <si>
     <t>Испытательное оборудование</t>
   </si>
   <si>
-    <t>АВЭМ</t>
-  </si>
-  <si>
     <t>ООО «Авиаагрегат-Н»</t>
   </si>
   <si>
-    <t>Протокол испытания №</t>
+    <t>Испытания ПОС лопасти на воздухе</t>
+  </si>
+  <si>
+    <t>Протокол испытания №:</t>
   </si>
   <si>
     <t>#PROTOCOL_NUMBER#</t>
   </si>
   <si>
-    <t xml:space="preserve">Дата: </t>
+    <t>Дата:</t>
   </si>
   <si>
     <t>#DATE#</t>
   </si>
   <si>
-    <t xml:space="preserve">Время: </t>
+    <t>Время:</t>
   </si>
   <si>
     <t>#TIME#</t>
+  </si>
+  <si>
+    <t>Оператор:</t>
+  </si>
+  <si>
+    <t>#OPERATOR#</t>
+  </si>
+  <si>
+    <t>#CIPHER1#</t>
+  </si>
+  <si>
+    <t>#CIPHER2#</t>
+  </si>
+  <si>
+    <t>#CIPHER3#</t>
+  </si>
+  <si>
+    <t>#NUMBER_PRODUCT1#</t>
+  </si>
+  <si>
+    <t>#NUMBER_PRODUCT2#</t>
+  </si>
+  <si>
+    <t>#NUMBER_PRODUCT3#</t>
+  </si>
+  <si>
+    <t>сек</t>
+  </si>
+  <si>
+    <t>1 секция</t>
+  </si>
+  <si>
+    <t>2 секция</t>
+  </si>
+  <si>
+    <t>3 секция</t>
+  </si>
+  <si>
+    <t>4 секция</t>
+  </si>
+  <si>
+    <t>5 секция</t>
+  </si>
+  <si>
+    <t>6 секция</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -87,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,51 +174,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -158,16 +269,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>331200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>761400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>278280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -180,8 +291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11432160" y="20520"/>
-          <a:ext cx="1186920" cy="1112400"/>
+          <a:off x="14020200" y="19080"/>
+          <a:ext cx="1440000" cy="1440000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -483,187 +594,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="72" width="4.7109375" customWidth="1"/>
-    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="1" max="19" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.25">
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="8" t="s">
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.25">
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="8" t="s">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.25">
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="8" t="s">
+    <row r="4" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q11" s="3" t="s">
+    <row r="5" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-    </row>
-    <row r="12" spans="1:36" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q12" s="1" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="2" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-    </row>
-    <row r="13" spans="1:36" ht="18" x14ac:dyDescent="0.2">
-      <c r="Q13" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-    </row>
-    <row r="14" spans="1:36" ht="18" x14ac:dyDescent="0.2">
-      <c r="Z14" s="11"/>
-      <c r="AC14" s="12"/>
-    </row>
-    <row r="15" spans="1:36" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-    </row>
-    <row r="16" spans="1:36" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q11:AB11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="Q12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="Q13:AB13"/>
-    <mergeCell ref="AC13:AI13"/>
+  <mergeCells count="15">
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:S9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:S10"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:S7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:S8"/>
   </mergeCells>
-  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="3" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="36" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="108" max="16383" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:S14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A319" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="19" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:S13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="59" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="9" manualBreakCount="9">
+    <brk id="43" max="16383" man="1"/>
+    <brk id="87" max="16383" man="1"/>
+    <brk id="131" max="16383" man="1"/>
+    <brk id="175" max="16383" man="1"/>
+    <brk id="219" max="16383" man="1"/>
+    <brk id="263" max="16383" man="1"/>
+    <brk id="307" max="16383" man="1"/>
+    <brk id="351" max="16383" man="1"/>
+    <brk id="395" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/src/main/resources/ru/avem/posshop/app/protocol.xlsx
+++ b/src/main/resources/ru/avem/posshop/app/protocol.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$216</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$S$395</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$S$791</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" calcMode="manual" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Стенд для испытания ПОС лопасти несущего винта изд. «260-2901-00»</t>
   </si>
@@ -35,24 +35,15 @@
     <t>ООО «Авиаагрегат-Н»</t>
   </si>
   <si>
-    <t>Испытания ПОС лопасти на воздухе</t>
-  </si>
-  <si>
     <t>Протокол испытания №:</t>
   </si>
   <si>
     <t>#PROTOCOL_NUMBER#</t>
   </si>
   <si>
-    <t>Дата:</t>
-  </si>
-  <si>
     <t>#DATE#</t>
   </si>
   <si>
-    <t>Время:</t>
-  </si>
-  <si>
     <t>#TIME#</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>#NUMBER_PRODUCT3#</t>
   </si>
   <si>
-    <t>сек</t>
-  </si>
-  <si>
     <t>1 секция</t>
   </si>
   <si>
@@ -99,13 +87,112 @@
   </si>
   <si>
     <t>6 секция</t>
+  </si>
+  <si>
+    <t>Дата начала:</t>
+  </si>
+  <si>
+    <t>Время начала:</t>
+  </si>
+  <si>
+    <t>#DATE_END#</t>
+  </si>
+  <si>
+    <t>#TIME_END#</t>
+  </si>
+  <si>
+    <t>Дата окончания:</t>
+  </si>
+  <si>
+    <t>Время окончания:</t>
+  </si>
+  <si>
+    <t>#NUMBER_CONTROLLER#</t>
+  </si>
+  <si>
+    <t>Зав.номер контроллера:</t>
+  </si>
+  <si>
+    <t>#NUMBER_DATE_ATTESTATION#</t>
+  </si>
+  <si>
+    <t>Номер и дата аттестации:</t>
+  </si>
+  <si>
+    <t>Поправки температуры нагревателей</t>
+  </si>
+  <si>
+    <t>Температура, °C</t>
+  </si>
+  <si>
+    <t>#T1#</t>
+  </si>
+  <si>
+    <t>#T2#</t>
+  </si>
+  <si>
+    <t>#T3#</t>
+  </si>
+  <si>
+    <t>#T4#</t>
+  </si>
+  <si>
+    <t>#T5#</t>
+  </si>
+  <si>
+    <t>#T6#</t>
+  </si>
+  <si>
+    <t>#T7#</t>
+  </si>
+  <si>
+    <t>#T8#</t>
+  </si>
+  <si>
+    <t>#T9#</t>
+  </si>
+  <si>
+    <t>#T10#</t>
+  </si>
+  <si>
+    <t>#T11#</t>
+  </si>
+  <si>
+    <t>#T12#</t>
+  </si>
+  <si>
+    <t>#T13#</t>
+  </si>
+  <si>
+    <t>#T14#</t>
+  </si>
+  <si>
+    <t>#T15#</t>
+  </si>
+  <si>
+    <t>#T16#</t>
+  </si>
+  <si>
+    <t>#T17#</t>
+  </si>
+  <si>
+    <t>#NAME_OF_OPERATION#</t>
+  </si>
+  <si>
+    <t>#T18#</t>
+  </si>
+  <si>
+    <t>мин</t>
+  </si>
+  <si>
+    <t>Время</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,14 +222,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -151,11 +230,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -202,33 +296,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,10 +357,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -276,9 +436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
+      <xdr:colOff>550272</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>278280</xdr:rowOff>
+      <xdr:rowOff>126</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -291,8 +451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14020200" y="19080"/>
-          <a:ext cx="1440000" cy="1440000"/>
+          <a:off x="13323201" y="19080"/>
+          <a:ext cx="1188000" cy="1188000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -594,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,383 +765,439 @@
     <col min="1" max="19" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="13" t="s">
+    <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="13" t="s">
+    <row r="2" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="Q3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="13" t="s">
+    <row r="4" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="7"/>
+      <c r="M7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="7"/>
+      <c r="M8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-    </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="3" t="s">
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="2" t="s">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="E15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="F15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="G15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="M15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="S15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:S9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:S10"/>
+  <mergeCells count="25">
+    <mergeCell ref="B14:S14"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="K6:S6"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A5:S5"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:M13"/>
     <mergeCell ref="N13:S13"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:S7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:S8"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:S12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="36" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -994,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:S14"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A319" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,83 +1221,28 @@
     <col min="1" max="19" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" t="s">
-        <v>17</v>
-      </c>
-    </row>
+    <row r="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:S13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="59" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <rowBreaks count="9" manualBreakCount="9">
+  <rowBreaks count="17" manualBreakCount="17">
     <brk id="43" max="16383" man="1"/>
     <brk id="87" max="16383" man="1"/>
     <brk id="131" max="16383" man="1"/>
@@ -1091,6 +1252,14 @@
     <brk id="307" max="16383" man="1"/>
     <brk id="351" max="16383" man="1"/>
     <brk id="395" max="16383" man="1"/>
+    <brk id="439" max="18" man="1"/>
+    <brk id="483" max="18" man="1"/>
+    <brk id="527" max="18" man="1"/>
+    <brk id="571" max="18" man="1"/>
+    <brk id="615" max="18" man="1"/>
+    <brk id="659" max="18" man="1"/>
+    <brk id="703" max="18" man="1"/>
+    <brk id="747" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>